--- a/All Scrapped Excels/Ondarreta.xlsx
+++ b/All Scrapped Excels/Ondarreta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
         </is>
       </c>
     </row>
@@ -479,6 +484,11 @@
           <t xml:space="preserve">Bob combi acero </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t xml:space="preserve">Hari polipropileno </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t xml:space="preserve">Hari polipropileno </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t xml:space="preserve">Aia </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t xml:space="preserve">Bai madera </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t xml:space="preserve">Lana acero </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t xml:space="preserve">Hari XL tapizada </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t xml:space="preserve">Hari XL tapizado </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t xml:space="preserve">Bai madera tapizada </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t xml:space="preserve">Hari tapizado </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t xml:space="preserve">Bai giratoria tapizada </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t xml:space="preserve">Bai giratoria </t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t xml:space="preserve">Lana acero </t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t xml:space="preserve">Lana madera </t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t xml:space="preserve">Doble Lana madera </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t xml:space="preserve">Doble Lana acero </t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t xml:space="preserve">Lana madera </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t xml:space="preserve">Hari tapizada </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t xml:space="preserve">Silu Combi </t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t xml:space="preserve">Silu </t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t xml:space="preserve">Bai trineo </t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t xml:space="preserve">Bai Tapizada </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t xml:space="preserve">Bai trineo Tapizada </t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t xml:space="preserve">Bai </t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t xml:space="preserve">Bob XL trineo </t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t xml:space="preserve">Bob XL madera tapizada </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t xml:space="preserve">Bob XL trineo </t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t xml:space="preserve">Bob XL giratoria </t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t xml:space="preserve">Bob XL madera tapizada </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t xml:space="preserve">Bob madera </t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t xml:space="preserve">Bob combi madera </t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t xml:space="preserve">Mikado </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t xml:space="preserve">Mikado XS </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t xml:space="preserve">Alo outdoor </t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t xml:space="preserve">Alo XL outdoor </t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t xml:space="preserve">Alo XL </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t xml:space="preserve">Alo </t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t xml:space="preserve">Ginger </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t xml:space="preserve">Ginger Lounge </t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t xml:space="preserve">Ginger Trineo  </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t xml:space="preserve">Ginger Lounge Trineo  </t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t xml:space="preserve">Ginger Madera </t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t xml:space="preserve">Ginger Lounge Madera </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t xml:space="preserve">Plegable Ika </t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t xml:space="preserve">Juno madera </t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t xml:space="preserve">Juno tapizado </t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t xml:space="preserve">Plegable clip </t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t xml:space="preserve">Don </t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t xml:space="preserve">Don giratoria </t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t xml:space="preserve">Don giratoria tapizada </t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t xml:space="preserve">Supra </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t xml:space="preserve">Supra </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t xml:space="preserve">Supra Trumpet </t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t xml:space="preserve">Supra Madera </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t xml:space="preserve">Supra Giratoria </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t xml:space="preserve">Supra Giratorio </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t xml:space="preserve">Don </t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t xml:space="preserve">Moka </t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">Moka </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ondarreta</t>
         </is>
       </c>
     </row>
